--- a/src/main/resources/kamite-manga-titles.xlsx
+++ b/src/main/resources/kamite-manga-titles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\droid\IdeaProjects\batch-processing\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E1CDDA-4FA6-4A87-9F26-9BD4E5E723AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E1E6EC-0BBF-48C4-A963-0DFBD2040AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{AC5134D6-296F-46E5-AEC0-767D6FE6DE51}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="248">
   <si>
     <t>PUBLISHER</t>
   </si>
@@ -728,6 +728,60 @@
   </si>
   <si>
     <t>Author: Fumie Akuta</t>
+  </si>
+  <si>
+    <t>Cardcaptor Sakura Clear Card</t>
+  </si>
+  <si>
+    <t>/ediciones/636654/cardcaptor_sakura_-_clear_card_arc-rustica_con_sobrecubierta/todos</t>
+  </si>
+  <si>
+    <t>Chobits</t>
+  </si>
+  <si>
+    <t>Romantic Comedy, Science Fiction</t>
+  </si>
+  <si>
+    <t>/ediciones/636655/chobits-rustica_con_sobrecubierta/todos</t>
+  </si>
+  <si>
+    <t>/329-chobits</t>
+  </si>
+  <si>
+    <t>Citrus+</t>
+  </si>
+  <si>
+    <t>/ediciones/635650/citrus_-rustica_con_sobrecubierta/todos</t>
+  </si>
+  <si>
+    <t>so-im-a-spider-so-what-light-novel</t>
+  </si>
+  <si>
+    <t>Writer: Okina Baba; Illustrator: Tsukasa Kiryu</t>
+  </si>
+  <si>
+    <t>/303-soy-una-araña-y-qué</t>
+  </si>
+  <si>
+    <t>/ediciones/529431/soy_una_arana_y_que_kumo_desuga_nanika-rustica_con_sobrecubierta/todos</t>
+  </si>
+  <si>
+    <t>light-novel</t>
+  </si>
+  <si>
+    <t>Death March to the Parallel World Rhapsody</t>
+  </si>
+  <si>
+    <t>/ediciones/614677/death_march_to_the_parallel_world_rhapsody-rustica_con_sobrecubierta/todos</t>
+  </si>
+  <si>
+    <t>Fantasy, Harem, Isekai</t>
+  </si>
+  <si>
+    <t>Writer: Hiro Ainana; Illustrator: shri</t>
+  </si>
+  <si>
+    <t>/321-death-march</t>
   </si>
 </sst>
 </file>
@@ -1145,17 +1199,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD34D45-7B3A-468A-9B41-B47EE7254BC3}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M41"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
@@ -1273,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="str">
-        <f t="shared" ref="C3:C40" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B3)," ","-"),":",""),"'","")</f>
+        <f t="shared" ref="C3:C39" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B3)," ","-"),":",""),"'","")</f>
         <v>girl-friends</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1441,7 +1495,7 @@
       <c r="J6" s="6">
         <v>10</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7">
         <v>43675</v>
       </c>
       <c r="L6" s="6" t="s">
@@ -1489,7 +1543,7 @@
       <c r="J7" s="6">
         <v>8</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="7">
         <v>43423</v>
       </c>
       <c r="L7" s="6" t="s">
@@ -1537,7 +1591,7 @@
       <c r="J8" s="6">
         <v>13</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="7">
         <v>44572</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -1585,7 +1639,7 @@
       <c r="J9" s="6">
         <v>9</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
         <v>42369</v>
       </c>
       <c r="L9" s="6" t="s">
@@ -1633,7 +1687,7 @@
       <c r="J10" s="6">
         <v>11</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="7">
         <v>43400</v>
       </c>
       <c r="L10" s="6" t="s">
@@ -1681,7 +1735,7 @@
       <c r="J11" s="6">
         <v>4</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="7">
         <v>42347</v>
       </c>
       <c r="L11" s="6" t="s">
@@ -1729,7 +1783,7 @@
       <c r="J12" s="6">
         <v>25</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="7">
         <v>43421</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -1777,7 +1831,7 @@
       <c r="J13" s="6">
         <v>12</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="7">
         <v>42014</v>
       </c>
       <c r="L13" s="6" t="s">
@@ -1825,7 +1879,7 @@
       <c r="J14" s="6">
         <v>5</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="7">
         <v>42149</v>
       </c>
       <c r="L14" s="6" t="s">
@@ -1873,7 +1927,7 @@
       <c r="J15" s="6">
         <v>10</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="7">
         <v>41558</v>
       </c>
       <c r="L15" s="6" t="s">
@@ -1921,7 +1975,7 @@
       <c r="J16" s="6">
         <v>13</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="7">
         <v>41986</v>
       </c>
       <c r="L16" s="6" t="s">
@@ -1969,7 +2023,7 @@
       <c r="J17" s="6">
         <v>4</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="7">
         <v>42637</v>
       </c>
       <c r="L17" s="6" t="s">
@@ -2017,7 +2071,7 @@
       <c r="J18" s="6">
         <v>2</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="7">
         <v>43585</v>
       </c>
       <c r="L18" s="6" t="s">
@@ -2065,7 +2119,7 @@
       <c r="J19" s="6">
         <v>28</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="7">
         <v>43276</v>
       </c>
       <c r="L19" s="6" t="s">
@@ -3047,7 +3101,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B40)," ","-"),":",""),"'","")</f>
         <v>1001-knights</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -3132,6 +3186,245 @@
       </c>
       <c r="O41" s="2" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B42)," ","-"),":",""),"'","")</f>
+        <v>cardcaptor-sakura-clear-card</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J42" s="2">
+        <v>13</v>
+      </c>
+      <c r="K42" s="3">
+        <v>45000</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B43)," ","-"),":",""),"'","")</f>
+        <v>chobits</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J43" s="2">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
+        <v>45002</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B44)," ","-"),":",""),"'","")</f>
+        <v>citrus+</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J44" s="2">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
+        <v>45005</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="2">
+        <v>18</v>
+      </c>
+      <c r="K45" s="3">
+        <v>43537</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B46)," ","-"),":",""),"'","")</f>
+        <v>death-march-to-the-parallel-world-rhapsody</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J46" s="2">
+        <v>27</v>
+      </c>
+      <c r="K46" s="3">
+        <v>44525</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
